--- a/data.xlsx
+++ b/data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,21 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>carne, yuca, arroz, lechuga</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>384</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Plato618</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>hogado atun pepino</t>
         </is>
       </c>
     </row>
@@ -657,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,12 +964,29 @@
           <t>Diego@123</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>384</v>
+      </c>
+      <c r="B16" t="n">
+        <v>56</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Andres@159</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
